--- a/casos_de_estudio/caso_1/errores_altos.xlsx
+++ b/casos_de_estudio/caso_1/errores_altos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D78"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,16 +452,16 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="B2" t="n">
-        <v>2380000</v>
+        <v>2233000</v>
       </c>
       <c r="C2" t="n">
-        <v>4424403.5</v>
+        <v>4321220</v>
       </c>
       <c r="D2" t="n">
-        <v>85.89930672268908</v>
+        <v>93.51634572324228</v>
       </c>
     </row>
     <row r="3">
@@ -472,66 +472,66 @@
         <v>1750000</v>
       </c>
       <c r="C3" t="n">
-        <v>3191166</v>
+        <v>3380407.25</v>
       </c>
       <c r="D3" t="n">
-        <v>82.35234285714286</v>
+        <v>93.16612857142857</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="n">
         <v>1750000</v>
       </c>
       <c r="C4" t="n">
-        <v>3128690.25</v>
+        <v>3272603</v>
       </c>
       <c r="D4" t="n">
-        <v>78.78230000000001</v>
+        <v>87.00588571428571</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="B5" t="n">
-        <v>2233000</v>
+        <v>2380000</v>
       </c>
       <c r="C5" t="n">
-        <v>3838530.75</v>
+        <v>4371614.5</v>
       </c>
       <c r="D5" t="n">
-        <v>71.90016793551275</v>
+        <v>83.68128151260504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>67</v>
+        <v>9</v>
       </c>
       <c r="B6" t="n">
-        <v>1750000</v>
+        <v>3500000</v>
       </c>
       <c r="C6" t="n">
-        <v>2996142.75</v>
+        <v>5932616</v>
       </c>
       <c r="D6" t="n">
-        <v>71.20815714285715</v>
+        <v>69.5033142857143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="B7" t="n">
-        <v>3500000</v>
+        <v>1750000</v>
       </c>
       <c r="C7" t="n">
-        <v>5517755.5</v>
+        <v>2822316</v>
       </c>
       <c r="D7" t="n">
-        <v>57.65015714285714</v>
+        <v>61.2752</v>
       </c>
     </row>
     <row r="8">
@@ -542,318 +542,318 @@
         <v>2275000</v>
       </c>
       <c r="C8" t="n">
-        <v>3534750.5</v>
+        <v>3535271.25</v>
       </c>
       <c r="D8" t="n">
-        <v>55.37364835164836</v>
+        <v>55.39653846153846</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3</v>
+        <v>66</v>
       </c>
       <c r="B9" t="n">
-        <v>1890000</v>
+        <v>8400000</v>
       </c>
       <c r="C9" t="n">
-        <v>2912904.75</v>
+        <v>4119406.75</v>
       </c>
       <c r="D9" t="n">
-        <v>54.12194444444446</v>
+        <v>50.95944345238095</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B10" t="n">
-        <v>8400000</v>
+        <v>2520000</v>
       </c>
       <c r="C10" t="n">
-        <v>4136360.5</v>
+        <v>3699640.75</v>
       </c>
       <c r="D10" t="n">
-        <v>50.7576130952381</v>
+        <v>46.81114087301587</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" t="n">
         <v>4025000</v>
       </c>
       <c r="C11" t="n">
-        <v>5937514</v>
+        <v>5738945.5</v>
       </c>
       <c r="D11" t="n">
-        <v>47.51587577639751</v>
+        <v>42.58249689440994</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B12" t="n">
-        <v>3570000</v>
+        <v>4340000</v>
       </c>
       <c r="C12" t="n">
-        <v>5241221.5</v>
+        <v>6158072.5</v>
       </c>
       <c r="D12" t="n">
-        <v>46.81292717086833</v>
+        <v>41.89107142857143</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="B13" t="n">
-        <v>4340000</v>
+        <v>3570000</v>
       </c>
       <c r="C13" t="n">
-        <v>6370170</v>
+        <v>5003962.5</v>
       </c>
       <c r="D13" t="n">
-        <v>46.77811059907835</v>
+        <v>40.16701680672267</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>2450000</v>
+        <v>1890000</v>
       </c>
       <c r="C14" t="n">
-        <v>3580393.5</v>
+        <v>2630729.75</v>
       </c>
       <c r="D14" t="n">
-        <v>46.13851020408163</v>
+        <v>39.19205026455028</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B15" t="n">
-        <v>3080000</v>
+        <v>2450000</v>
       </c>
       <c r="C15" t="n">
-        <v>4476866.5</v>
+        <v>3392808.75</v>
       </c>
       <c r="D15" t="n">
-        <v>45.35280844155844</v>
+        <v>38.48198979591837</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="B16" t="n">
-        <v>2520000</v>
+        <v>4200000</v>
       </c>
       <c r="C16" t="n">
-        <v>3662826.75</v>
+        <v>5768288</v>
       </c>
       <c r="D16" t="n">
-        <v>45.35026785714285</v>
+        <v>37.34019047619048</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="B17" t="n">
-        <v>4200000</v>
+        <v>3010000</v>
       </c>
       <c r="C17" t="n">
-        <v>5899988</v>
+        <v>4128174.5</v>
       </c>
       <c r="D17" t="n">
-        <v>40.47590476190476</v>
+        <v>37.14865448504983</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B18" t="n">
         <v>2450000</v>
       </c>
       <c r="C18" t="n">
-        <v>3410046</v>
+        <v>3340312.5</v>
       </c>
       <c r="D18" t="n">
-        <v>39.18555102040816</v>
+        <v>36.33928571428572</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B19" t="n">
-        <v>3850000</v>
+        <v>5110000</v>
       </c>
       <c r="C19" t="n">
-        <v>5226674</v>
+        <v>3332437.25</v>
       </c>
       <c r="D19" t="n">
-        <v>35.75776623376623</v>
+        <v>34.78596379647749</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="B20" t="n">
-        <v>2135000</v>
+        <v>3080000</v>
       </c>
       <c r="C20" t="n">
-        <v>2890783.25</v>
+        <v>4132898</v>
       </c>
       <c r="D20" t="n">
-        <v>35.39968384074941</v>
+        <v>34.185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B21" t="n">
-        <v>3430000</v>
+        <v>3850000</v>
       </c>
       <c r="C21" t="n">
-        <v>4583918</v>
+        <v>5140917.5</v>
       </c>
       <c r="D21" t="n">
-        <v>33.64192419825073</v>
+        <v>33.53032467532467</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="B22" t="n">
-        <v>4543000</v>
+        <v>2135000</v>
       </c>
       <c r="C22" t="n">
-        <v>6056867.5</v>
+        <v>2782056</v>
       </c>
       <c r="D22" t="n">
-        <v>33.32307946290997</v>
+        <v>30.30707259953162</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="B23" t="n">
-        <v>3010000</v>
+        <v>3500000</v>
       </c>
       <c r="C23" t="n">
-        <v>3995510.75</v>
+        <v>4558037</v>
       </c>
       <c r="D23" t="n">
-        <v>32.74122093023256</v>
+        <v>30.22962857142857</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B24" t="n">
-        <v>8680000</v>
+        <v>2870000</v>
       </c>
       <c r="C24" t="n">
-        <v>5955111.5</v>
+        <v>3716983.5</v>
       </c>
       <c r="D24" t="n">
-        <v>31.39272465437788</v>
+        <v>29.51162020905923</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B25" t="n">
-        <v>3080000</v>
+        <v>3290000</v>
       </c>
       <c r="C25" t="n">
-        <v>4033428.75</v>
+        <v>4245402</v>
       </c>
       <c r="D25" t="n">
-        <v>30.95547889610389</v>
+        <v>29.03957446808511</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B26" t="n">
-        <v>3640000</v>
+        <v>8680000</v>
       </c>
       <c r="C26" t="n">
-        <v>4756747</v>
+        <v>6177615</v>
       </c>
       <c r="D26" t="n">
-        <v>30.67986263736262</v>
+        <v>28.82932027649769</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B27" t="n">
-        <v>5110000</v>
+        <v>3430000</v>
       </c>
       <c r="C27" t="n">
-        <v>3546918.75</v>
+        <v>4388945.5</v>
       </c>
       <c r="D27" t="n">
-        <v>30.58867416829746</v>
+        <v>27.95759475218659</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="B28" t="n">
-        <v>2485000</v>
+        <v>4543000</v>
       </c>
       <c r="C28" t="n">
-        <v>3198830.25</v>
+        <v>5811781.5</v>
       </c>
       <c r="D28" t="n">
-        <v>28.72556338028169</v>
+        <v>27.92827426810478</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="B29" t="n">
-        <v>4375000</v>
+        <v>3080000</v>
       </c>
       <c r="C29" t="n">
-        <v>3136273.5</v>
+        <v>3918247.75</v>
       </c>
       <c r="D29" t="n">
-        <v>28.31374857142857</v>
+        <v>27.21583603896104</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B30" t="n">
-        <v>2870000</v>
+        <v>5600000</v>
       </c>
       <c r="C30" t="n">
-        <v>3658486.5</v>
+        <v>4100026.25</v>
       </c>
       <c r="D30" t="n">
-        <v>27.47339721254355</v>
+        <v>26.78524553571429</v>
       </c>
     </row>
     <row r="31">
@@ -861,671 +861,685 @@
         <v>53</v>
       </c>
       <c r="B31" t="n">
-        <v>4970000</v>
+        <v>2870000</v>
       </c>
       <c r="C31" t="n">
-        <v>6312960</v>
+        <v>3598649.5</v>
       </c>
       <c r="D31" t="n">
-        <v>27.02132796780684</v>
+        <v>25.38848432055749</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
-        <v>74</v>
+        <v>26</v>
       </c>
       <c r="B32" t="n">
-        <v>4060000</v>
+        <v>4375000</v>
       </c>
       <c r="C32" t="n">
-        <v>5155119</v>
+        <v>3283094.5</v>
       </c>
       <c r="D32" t="n">
-        <v>26.97337438423645</v>
+        <v>24.95784</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n">
-        <v>3290000</v>
+        <v>3990000</v>
       </c>
       <c r="C33" t="n">
-        <v>4146467.25</v>
+        <v>4984787</v>
       </c>
       <c r="D33" t="n">
-        <v>26.03243920972644</v>
+        <v>24.93200501253133</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B34" t="n">
-        <v>3990000</v>
+        <v>3640000</v>
       </c>
       <c r="C34" t="n">
-        <v>4973159.5</v>
+        <v>4508519.5</v>
       </c>
       <c r="D34" t="n">
-        <v>24.64058897243108</v>
+        <v>23.86042582417581</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="B35" t="n">
-        <v>3920000</v>
+        <v>5033000</v>
       </c>
       <c r="C35" t="n">
-        <v>4852118</v>
+        <v>3866840.75</v>
       </c>
       <c r="D35" t="n">
-        <v>23.77852040816326</v>
+        <v>23.17026127558116</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="B36" t="n">
-        <v>5600000</v>
+        <v>2485000</v>
       </c>
       <c r="C36" t="n">
-        <v>4270943</v>
+        <v>3055258.25</v>
       </c>
       <c r="D36" t="n">
-        <v>23.73316071428571</v>
+        <v>22.94801810865191</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="B37" t="n">
-        <v>3500000</v>
+        <v>8294999.999999999</v>
       </c>
       <c r="C37" t="n">
-        <v>4257108.5</v>
+        <v>6462561.5</v>
       </c>
       <c r="D37" t="n">
-        <v>21.63167142857143</v>
+        <v>22.09088004822181</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>35</v>
+        <v>69</v>
       </c>
       <c r="B38" t="n">
-        <v>2408000</v>
+        <v>3703000</v>
       </c>
       <c r="C38" t="n">
-        <v>2928118.25</v>
+        <v>4501734.5</v>
       </c>
       <c r="D38" t="n">
-        <v>21.59959509966777</v>
+        <v>21.56992978665948</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>7</v>
+        <v>54</v>
       </c>
       <c r="B39" t="n">
-        <v>5495000</v>
+        <v>3290000</v>
       </c>
       <c r="C39" t="n">
-        <v>4350131</v>
+        <v>3967805.25</v>
       </c>
       <c r="D39" t="n">
-        <v>20.8347406733394</v>
+        <v>20.60198328267477</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="B40" t="n">
-        <v>3290000</v>
+        <v>3640000</v>
       </c>
       <c r="C40" t="n">
-        <v>3960702.25</v>
+        <v>4362461.5</v>
       </c>
       <c r="D40" t="n">
-        <v>20.38608662613982</v>
+        <v>19.84784340659339</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
-        <v>45</v>
+        <v>17</v>
       </c>
       <c r="B41" t="n">
-        <v>8294999.999999999</v>
+        <v>3710000</v>
       </c>
       <c r="C41" t="n">
-        <v>6640106</v>
+        <v>2978359.75</v>
       </c>
       <c r="D41" t="n">
-        <v>19.95050030138637</v>
+        <v>19.7207614555256</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B42" t="n">
-        <v>5810000</v>
+        <v>5530000</v>
       </c>
       <c r="C42" t="n">
-        <v>4693662</v>
+        <v>4461440.5</v>
       </c>
       <c r="D42" t="n">
-        <v>19.21407917383821</v>
+        <v>19.32295660036166</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B43" t="n">
-        <v>4690000</v>
+        <v>5950000</v>
       </c>
       <c r="C43" t="n">
-        <v>3793510.5</v>
+        <v>4830545</v>
       </c>
       <c r="D43" t="n">
-        <v>19.11491471215352</v>
+        <v>18.81436974789916</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B44" t="n">
-        <v>3465000</v>
+        <v>5565000</v>
       </c>
       <c r="C44" t="n">
-        <v>4122910.5</v>
+        <v>6569257.5</v>
       </c>
       <c r="D44" t="n">
-        <v>18.98731601731602</v>
+        <v>18.04595687331537</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>5390000</v>
+        <v>4690000</v>
       </c>
       <c r="C45" t="n">
-        <v>6393535</v>
+        <v>3860289.5</v>
       </c>
       <c r="D45" t="n">
-        <v>18.61846011131725</v>
+        <v>17.69105543710021</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="B46" t="n">
-        <v>5250000</v>
+        <v>5215000</v>
       </c>
       <c r="C46" t="n">
-        <v>6225744.5</v>
+        <v>4305643.5</v>
       </c>
       <c r="D46" t="n">
-        <v>18.58560952380952</v>
+        <v>17.43732502396932</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B47" t="n">
-        <v>2590000</v>
+        <v>5495000</v>
       </c>
       <c r="C47" t="n">
-        <v>3070216.25</v>
+        <v>4548168.5</v>
       </c>
       <c r="D47" t="n">
-        <v>18.54116795366795</v>
+        <v>17.23078252957234</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B48" t="n">
-        <v>4473000</v>
+        <v>7245000</v>
       </c>
       <c r="C48" t="n">
-        <v>5281724</v>
+        <v>8487414</v>
       </c>
       <c r="D48" t="n">
-        <v>18.08012519561816</v>
+        <v>17.14857142857143</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B49" t="n">
-        <v>2870000</v>
+        <v>2408000</v>
       </c>
       <c r="C49" t="n">
-        <v>3388169.75</v>
+        <v>2816920.25</v>
       </c>
       <c r="D49" t="n">
-        <v>18.05469512195122</v>
+        <v>16.98173795681063</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>6930000</v>
+        <v>6300000</v>
       </c>
       <c r="C50" t="n">
-        <v>5739791</v>
+        <v>5252373</v>
       </c>
       <c r="D50" t="n">
-        <v>17.17473304473305</v>
+        <v>16.629</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B51" t="n">
-        <v>7245000</v>
+        <v>6650000</v>
       </c>
       <c r="C51" t="n">
-        <v>8456038</v>
+        <v>5554134</v>
       </c>
       <c r="D51" t="n">
-        <v>16.71550034506556</v>
+        <v>16.47918796992481</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="B52" t="n">
-        <v>6300000</v>
+        <v>4060000</v>
       </c>
       <c r="C52" t="n">
-        <v>5280426</v>
+        <v>3407564.5</v>
       </c>
       <c r="D52" t="n">
-        <v>16.18371428571428</v>
+        <v>16.06983990147783</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="B53" t="n">
-        <v>5033000</v>
+        <v>5390000</v>
       </c>
       <c r="C53" t="n">
-        <v>4223660.5</v>
+        <v>6251707</v>
       </c>
       <c r="D53" t="n">
-        <v>16.08065765944765</v>
+        <v>15.98714285714286</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="B54" t="n">
-        <v>4200000</v>
+        <v>6419000</v>
       </c>
       <c r="C54" t="n">
-        <v>3526730.75</v>
+        <v>5408772.5</v>
       </c>
       <c r="D54" t="n">
-        <v>16.03022023809524</v>
+        <v>15.73808225580308</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="B55" t="n">
-        <v>3885000</v>
+        <v>3430000</v>
       </c>
       <c r="C55" t="n">
-        <v>4495333</v>
+        <v>2903050.5</v>
       </c>
       <c r="D55" t="n">
-        <v>15.70998712998713</v>
+        <v>15.36295918367347</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B56" t="n">
-        <v>3640000</v>
+        <v>3885000</v>
       </c>
       <c r="C56" t="n">
-        <v>4207608</v>
+        <v>4466045</v>
       </c>
       <c r="D56" t="n">
-        <v>15.59362637362636</v>
+        <v>14.95611325611326</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B57" t="n">
-        <v>5810000</v>
+        <v>6930000</v>
       </c>
       <c r="C57" t="n">
-        <v>4910560</v>
+        <v>5912520.5</v>
       </c>
       <c r="D57" t="n">
-        <v>15.48089500860585</v>
+        <v>14.68224386724387</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B58" t="n">
-        <v>5740000</v>
+        <v>3465000</v>
       </c>
       <c r="C58" t="n">
-        <v>4856403.5</v>
+        <v>3964181.25</v>
       </c>
       <c r="D58" t="n">
-        <v>15.39366724738676</v>
+        <v>14.40638528138528</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="B59" t="n">
-        <v>5950000</v>
+        <v>2835000</v>
       </c>
       <c r="C59" t="n">
-        <v>5035798.5</v>
+        <v>3240659</v>
       </c>
       <c r="D59" t="n">
-        <v>15.36473109243698</v>
+        <v>14.3089594356261</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B60" t="n">
         <v>4907000</v>
       </c>
       <c r="C60" t="n">
-        <v>4163627.5</v>
+        <v>4205315.5</v>
       </c>
       <c r="D60" t="n">
-        <v>15.14922559608722</v>
+        <v>14.29966374566945</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="B61" t="n">
-        <v>6650000</v>
+        <v>3087000</v>
       </c>
       <c r="C61" t="n">
-        <v>5645206</v>
+        <v>3522897.75</v>
       </c>
       <c r="D61" t="n">
-        <v>15.10968421052632</v>
+        <v>14.12043245869777</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="B62" t="n">
-        <v>2660000</v>
+        <v>5250000</v>
       </c>
       <c r="C62" t="n">
-        <v>3061633.25</v>
+        <v>5983282</v>
       </c>
       <c r="D62" t="n">
-        <v>15.09899436090226</v>
+        <v>13.96727619047619</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
-        <v>69</v>
+        <v>12</v>
       </c>
       <c r="B63" t="n">
-        <v>3675000</v>
+        <v>3920000</v>
       </c>
       <c r="C63" t="n">
-        <v>4227608.5</v>
+        <v>4450266</v>
       </c>
       <c r="D63" t="n">
-        <v>15.03696598639457</v>
+        <v>13.52719387755102</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="B64" t="n">
-        <v>6419000</v>
+        <v>5810000</v>
       </c>
       <c r="C64" t="n">
-        <v>5461532</v>
+        <v>5033414</v>
       </c>
       <c r="D64" t="n">
-        <v>14.91615516435582</v>
+        <v>13.36636833046471</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
-        <v>36</v>
+        <v>7</v>
       </c>
       <c r="B65" t="n">
-        <v>4403000</v>
+        <v>4200000</v>
       </c>
       <c r="C65" t="n">
-        <v>3776033.5</v>
+        <v>3638951.25</v>
       </c>
       <c r="D65" t="n">
-        <v>14.23952986600046</v>
+        <v>13.35830357142857</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="B66" t="n">
-        <v>5460000</v>
+        <v>2590000</v>
       </c>
       <c r="C66" t="n">
-        <v>6218641</v>
+        <v>2933935.25</v>
       </c>
       <c r="D66" t="n">
-        <v>13.89452380952381</v>
+        <v>13.27935328185328</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
-        <v>20</v>
+        <v>73</v>
       </c>
       <c r="B67" t="n">
-        <v>3675000</v>
+        <v>4060000</v>
       </c>
       <c r="C67" t="n">
-        <v>3169733.25</v>
+        <v>4577985.5</v>
       </c>
       <c r="D67" t="n">
-        <v>13.74875510204081</v>
+        <v>12.75826354679803</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="B68" t="n">
-        <v>5950000</v>
+        <v>2940000</v>
       </c>
       <c r="C68" t="n">
-        <v>5132399</v>
+        <v>3297328.75</v>
       </c>
       <c r="D68" t="n">
-        <v>13.74119327731092</v>
+        <v>12.15403911564626</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>5565000</v>
+        <v>5460000</v>
       </c>
       <c r="C69" t="n">
-        <v>6269683.5</v>
+        <v>6122246.5</v>
       </c>
       <c r="D69" t="n">
-        <v>12.66277628032345</v>
+        <v>12.12905677655678</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B70" t="n">
-        <v>4095000</v>
+        <v>5950000</v>
       </c>
       <c r="C70" t="n">
-        <v>4599195</v>
+        <v>5228970</v>
       </c>
       <c r="D70" t="n">
-        <v>12.31245421245421</v>
+        <v>12.1181512605042</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="B71" t="n">
-        <v>3087000</v>
+        <v>8400000</v>
       </c>
       <c r="C71" t="n">
-        <v>3465336.75</v>
+        <v>7413476</v>
       </c>
       <c r="D71" t="n">
-        <v>12.25580660835763</v>
+        <v>11.74433333333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="B72" t="n">
-        <v>6090000</v>
+        <v>4550000</v>
       </c>
       <c r="C72" t="n">
-        <v>5352505.5</v>
+        <v>5068953</v>
       </c>
       <c r="D72" t="n">
-        <v>12.10992610837438</v>
+        <v>11.40556043956044</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
-        <v>16</v>
+        <v>74</v>
       </c>
       <c r="B73" t="n">
-        <v>3710000</v>
+        <v>3360000</v>
       </c>
       <c r="C73" t="n">
-        <v>3265717.75</v>
+        <v>2979431</v>
       </c>
       <c r="D73" t="n">
-        <v>11.97526280323449</v>
+        <v>11.32645833333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B74" t="n">
-        <v>2940000</v>
+        <v>3780000</v>
       </c>
       <c r="C74" t="n">
-        <v>3281655.25</v>
+        <v>4203505.5</v>
       </c>
       <c r="D74" t="n">
-        <v>11.6209268707483</v>
+        <v>11.20384920634922</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B75" t="n">
-        <v>3703000</v>
+        <v>3675000</v>
       </c>
       <c r="C75" t="n">
-        <v>4131040.75</v>
+        <v>4085956.25</v>
       </c>
       <c r="D75" t="n">
-        <v>11.55929651633812</v>
+        <v>11.18248299319729</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
-        <v>2</v>
+        <v>52</v>
       </c>
       <c r="B76" t="n">
-        <v>4060000</v>
+        <v>4970000</v>
       </c>
       <c r="C76" t="n">
-        <v>3612686.5</v>
+        <v>5518557.5</v>
       </c>
       <c r="D76" t="n">
-        <v>11.01757389162562</v>
+        <v>11.03737424547284</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B77" t="n">
-        <v>4480000</v>
+        <v>3675000</v>
       </c>
       <c r="C77" t="n">
-        <v>4012459.25</v>
+        <v>3271173</v>
       </c>
       <c r="D77" t="n">
-        <v>10.43617745535714</v>
+        <v>10.98848979591836</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>5530000</v>
+        <v>7419999.999999999</v>
       </c>
       <c r="C78" t="n">
-        <v>4974849.5</v>
+        <v>6640457.5</v>
       </c>
       <c r="D78" t="n">
-        <v>10.03888788426763</v>
+        <v>10.50596361185983</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6090000</v>
+      </c>
+      <c r="C79" t="n">
+        <v>5455917.5</v>
+      </c>
+      <c r="D79" t="n">
+        <v>10.41186371100164</v>
       </c>
     </row>
   </sheetData>
